--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E3136-2438-4217-B632-1AFE6F5BD8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687159B-F3D3-4A1D-974F-595AA3171E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,22 +967,22 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="16" customWidth="1"/>
     <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
     <col min="27" max="27" width="22.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.5" style="16" bestFit="1" customWidth="1"/>
@@ -1010,19 +1010,19 @@
       <c r="K1" s="14"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="14"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="14"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="14"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="14"/>
+      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="14"/>
@@ -1037,11 +1037,6 @@
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="K2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="Z2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -1290,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
   <dimension ref="B2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687159B-F3D3-4A1D-974F-595AA3171E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE2E49-096B-400C-89DD-2B2F287679A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,10 @@
   <si>
     <t>피로도 구간 적용 개수
 - EX) 해당 값이 3인 캐릭터의 경우 세번째 구간 및 감소 폭만 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,14 +956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -970,19 +974,19 @@
     <col min="11" max="11" width="9.625" style="16" customWidth="1"/>
     <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="16" customWidth="1"/>
     <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="16" customWidth="1"/>
     <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="16" customWidth="1"/>
     <col min="21" max="21" width="22.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="16" customWidth="1"/>
     <col min="24" max="24" width="22.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="9.625" style="16" customWidth="1"/>
     <col min="27" max="27" width="22.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.5" style="16" bestFit="1" customWidth="1"/>
@@ -1010,19 +1014,19 @@
       <c r="K1" s="14"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="14"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="Z1" s="14"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="14"/>
@@ -1037,11 +1041,16 @@
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="K2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="Z2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>31</v>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE2E49-096B-400C-89DD-2B2F287679A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E12FEF-9BE1-4D14-879A-CBE92D4E43EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29010" windowHeight="15435" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,15 +134,6 @@
   </si>
   <si>
     <t>StaminaDownRate4</t>
-  </si>
-  <si>
-    <t>이름 텍스트
-- GameText 내 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
@@ -317,10 +308,6 @@
   <si>
     <t>변신 필요 수치
 - 변신 캐릭터의 경우 최대치 도달 시 변신 조건이 될 게이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestWakgoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +406,50 @@
   </si>
   <si>
     <t>GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defencec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 방어력 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왁굳형테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,37 +1001,37 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="16" customWidth="1"/>
-    <col min="27" max="27" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="16" customWidth="1"/>
+    <col min="23" max="23" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.5" style="16" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="21.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1011,49 +1042,51 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="14"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="AE1" s="14"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="K2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="1:40" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
@@ -1075,94 +1108,100 @@
         <v>23</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2010001</v>
       </c>
@@ -1171,19 +1210,19 @@
         <v>2011001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="5">
         <v>55</v>
@@ -1194,20 +1233,20 @@
       <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
         <v>3011001</v>
       </c>
-      <c r="L4" s="10">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="O4" s="10">
         <v>3</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -1249,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
         <v>4</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AF4" s="5">
         <v>4</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AG4" s="5">
         <v>0.8</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AH4" s="5">
         <v>0.1</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AI4" s="5">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AJ4" s="5">
         <v>0.15</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AK4" s="5">
         <v>0.3</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AL4" s="5">
         <v>0.2</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AM4" s="5">
         <v>0.1</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AN4" s="5">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:AL4">
+  <conditionalFormatting sqref="A4:AN4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1292,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
-  <dimension ref="B2:D37"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,15 +1373,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -1347,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="96" x14ac:dyDescent="0.3">
@@ -1358,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -1369,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -1380,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -1391,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -1402,304 +1447,326 @@
         <v>14</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8" t="s">
+    </row>
+    <row r="31" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="48" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
